--- a/madisonData.xlsx
+++ b/madisonData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chock\Desktop\school\GRAD\OM516\dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chock\Desktop\school\GRAD\OM516\dev\OMP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A113B69-5FEA-46BE-ACC3-54DAC7D41D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB14F615-38D0-41AA-8CA3-83A0E96FD9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{117D388F-8E02-48E4-BAB9-6DBDE62B405D}"/>
+    <workbookView xWindow="1890" yWindow="0" windowWidth="13147" windowHeight="8460" xr2:uid="{117D388F-8E02-48E4-BAB9-6DBDE62B405D}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Year</t>
   </si>
@@ -52,15 +52,30 @@
   <si>
     <t>Benefit Cost</t>
   </si>
+  <si>
+    <t>State Unemployment</t>
+  </si>
+  <si>
+    <t>Consumer Price Index</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,16 +101,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -427,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71998E2C-729F-4B9C-B948-8EA96E1EC4B2}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -439,9 +458,11 @@
     <col min="3" max="3" width="11.46484375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,8 +478,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -474,8 +501,14 @@
       <c r="E2" s="2">
         <v>366782122</v>
       </c>
+      <c r="F2" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>292.65499999999997</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -491,8 +524,14 @@
       <c r="E3" s="2">
         <v>324808584</v>
       </c>
+      <c r="F3" s="3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>270.97000000000003</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -508,8 +547,14 @@
       <c r="E4" s="2">
         <v>297089228</v>
       </c>
+      <c r="F4" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>258.81099999999998</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -525,8 +570,14 @@
       <c r="E5" s="2">
         <v>306885758</v>
       </c>
+      <c r="F5" s="3">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>255.65700000000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -542,8 +593,14 @@
       <c r="E6" s="2">
         <v>270549405</v>
       </c>
+      <c r="F6" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="G6" s="4">
+        <v>251.107</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -558,6 +615,12 @@
       </c>
       <c r="E7" s="2">
         <v>252498244</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>245.12</v>
       </c>
     </row>
   </sheetData>

--- a/madisonData.xlsx
+++ b/madisonData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chock\Desktop\school\GRAD\OM516\dev\OMP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB14F615-38D0-41AA-8CA3-83A0E96FD9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1968E60A-EA99-4222-BB7E-CDF3041C9010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="0" windowWidth="13147" windowHeight="8460" xr2:uid="{117D388F-8E02-48E4-BAB9-6DBDE62B405D}"/>
+    <workbookView xWindow="11168" yWindow="0" windowWidth="11415" windowHeight="14362" xr2:uid="{117D388F-8E02-48E4-BAB9-6DBDE62B405D}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Year</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Consumer Price Index</t>
+  </si>
+  <si>
+    <t>Median Household Income</t>
+  </si>
+  <si>
+    <t>SNAP Recipients</t>
   </si>
 </sst>
 </file>
@@ -66,7 +72,7 @@
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -110,7 +116,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71998E2C-729F-4B9C-B948-8EA96E1EC4B2}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -460,9 +466,11 @@
     <col min="5" max="5" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,8 +492,14 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -507,8 +521,14 @@
       <c r="G2" s="4">
         <v>292.65499999999997</v>
       </c>
+      <c r="H2">
+        <v>80426</v>
+      </c>
+      <c r="I2">
+        <v>36551</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -530,8 +550,14 @@
       <c r="G3" s="4">
         <v>270.97000000000003</v>
       </c>
+      <c r="H3">
+        <v>78386</v>
+      </c>
+      <c r="I3">
+        <v>37964</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -553,8 +579,14 @@
       <c r="G4" s="4">
         <v>258.81099999999998</v>
       </c>
+      <c r="H4">
+        <v>67810</v>
+      </c>
+      <c r="I4">
+        <v>37893</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -576,8 +608,14 @@
       <c r="G5" s="4">
         <v>255.65700000000001</v>
       </c>
+      <c r="H5">
+        <v>68609</v>
+      </c>
+      <c r="I5">
+        <v>36578</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -599,8 +637,14 @@
       <c r="G6" s="4">
         <v>251.107</v>
       </c>
+      <c r="H6">
+        <v>63755</v>
+      </c>
+      <c r="I6">
+        <v>37088</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -621,6 +665,12 @@
       </c>
       <c r="G7" s="4">
         <v>245.12</v>
+      </c>
+      <c r="H7">
+        <v>62750</v>
+      </c>
+      <c r="I7">
+        <v>38675</v>
       </c>
     </row>
   </sheetData>

--- a/madisonData.xlsx
+++ b/madisonData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chock\Desktop\school\GRAD\OM516\dev\OMP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1968E60A-EA99-4222-BB7E-CDF3041C9010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C047BD-D866-42A3-9865-4DD38D3C85DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11168" yWindow="0" windowWidth="11415" windowHeight="14362" xr2:uid="{117D388F-8E02-48E4-BAB9-6DBDE62B405D}"/>
+    <workbookView xWindow="4230" yWindow="3090" windowWidth="15660" windowHeight="8460" xr2:uid="{117D388F-8E02-48E4-BAB9-6DBDE62B405D}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>State Population</t>
   </si>
   <si>
-    <t>Benefit Cost</t>
-  </si>
-  <si>
     <t>State Unemployment</t>
   </si>
   <si>
@@ -63,14 +60,18 @@
   </si>
   <si>
     <t>SNAP Recipients</t>
+  </si>
+  <si>
+    <t>Benefit Payments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
@@ -111,12 +112,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71998E2C-729F-4B9C-B948-8EA96E1EC4B2}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -484,19 +486,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -672,6 +674,9 @@
       <c r="I7">
         <v>38675</v>
       </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
